--- a/api_test/data/test_data.xlsx
+++ b/api_test/data/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tiger\api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{151D2C2F-7379-45D8-899F-59C0998769B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA1D01-1592-4A77-BBBC-C8F854B8663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2000" yWindow="440" windowWidth="14190" windowHeight="10210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="test_data_1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
   <si>
     <t>case_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,18 +124,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status_code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据库验证</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"except_code":201</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Y</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"password": "123456", "username": "test"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>请求data</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -177,6 +165,35 @@
   </si>
   <si>
     <t>datarole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_case_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_case_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_case_3</t>
+  </si>
+  <si>
+    <t>test_case_4</t>
+  </si>
+  <si>
+    <t>test_case_5</t>
+  </si>
+  <si>
+    <t>/api/admin-api/system/auth/login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ "username": "tom.t.xu", "password": "123456", "captchaVerification": ""}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>req_code</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -644,8 +661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
@@ -654,7 +671,7 @@
     <col min="2" max="2" width="10.4140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.58203125" style="3" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.25" style="3" bestFit="1" customWidth="1"/>
@@ -673,7 +690,7 @@
         <v>8</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>9</v>
@@ -697,7 +714,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>17</v>
@@ -715,35 +732,37 @@
         <v>23</v>
       </c>
       <c r="P1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>24</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
-        <v>1</v>
+      <c r="A2" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="F2" s="4"/>
       <c r="G2" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="J2" s="4"/>
       <c r="K2" s="4" t="s">
@@ -751,7 +770,7 @@
       </c>
       <c r="L2" s="4"/>
       <c r="M2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -761,36 +780,32 @@
       <c r="Q2" s="4"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="4">
-        <v>2</v>
+      <c r="A3" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="I3" s="7"/>
-      <c r="J3" s="7">
-        <v>19908290001</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -800,8 +815,8 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="4">
-        <v>3</v>
+      <c r="A4" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -813,14 +828,16 @@
       <c r="I4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
+      <c r="M4" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="4">
-        <v>4</v>
+      <c r="A5" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -833,15 +850,17 @@
       <c r="J5" s="7"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
+      <c r="M5" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="4">
-        <v>5</v>
+      <c r="A6" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -854,7 +873,9 @@
       <c r="J6" s="7"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
+      <c r="M6" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="N6" s="4"/>
       <c r="O6" s="4"/>
       <c r="P6" s="4"/>

--- a/api_test/data/test_data.xlsx
+++ b/api_test/data/test_data.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tiger\api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8EA1D01-1592-4A77-BBBC-C8F854B8663B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43C425-CBCC-4C88-B203-6E225B39B40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2000" yWindow="440" windowWidth="14190" windowHeight="10210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_data_1" sheetId="1" r:id="rId1"/>
-    <sheet name="接口测试用例_1" sheetId="2" r:id="rId2"/>
+    <sheet name="接口测试用例_1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,39 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="43">
-  <si>
-    <t>case_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>expect</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.baidu.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{'password': '123456', 'username': 'test'}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get测试用例1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>get测试用例2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -100,14 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"except_code":200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>password': '123456', 'username': 'test2'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>实际结果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,18 +115,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>数据权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>login</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>datarole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test_case_1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -194,6 +145,10 @@
   </si>
   <si>
     <t>req_code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"userId": 3334060</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -297,12 +252,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
@@ -589,297 +541,228 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.58203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="4">
-        <v>201</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.58203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="44.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="37.83203125" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="8.58203125" style="3"/>
+    <col min="1" max="1" width="10.4140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.83203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.58203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="M1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="N1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="O1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="P1" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4">
-        <v>200</v>
-      </c>
-      <c r="Q2" s="4"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3">
+        <v>201</v>
+      </c>
+      <c r="Q2" s="3"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4" t="s">
+      <c r="A3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4">
-        <v>200</v>
-      </c>
-      <c r="Q3" s="4"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+      <c r="Q5" s="3"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/api_test/data/test_data.xlsx
+++ b/api_test/data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tiger\api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE43C425-CBCC-4C88-B203-6E225B39B40B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0128BB-FAB3-4BDC-8F41-36289B0B4F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,7 +544,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="16.5" x14ac:dyDescent="0.45"/>
   <cols>
@@ -553,7 +555,8 @@
     <col min="3" max="3" width="8.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.08203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="44.25" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="37.83203125" style="2" customWidth="1"/>
@@ -635,7 +638,9 @@
       <c r="E2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="F2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="G2" s="3" t="s">
         <v>18</v>
       </c>
@@ -654,7 +659,7 @@
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
       <c r="P2" s="3">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="3"/>
     </row>

--- a/api_test/data/test_data.xlsx
+++ b/api_test/data/test_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Tiger\api_test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F0128BB-FAB3-4BDC-8F41-36289B0B4F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE0075D1-05D0-42CC-84FF-274BB8744686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22620" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>用例编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,10 @@
   </si>
   <si>
     <t>"userId": 3334060</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200_test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -544,7 +548,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -658,8 +662,8 @@
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="3">
-        <v>200</v>
+      <c r="P2" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="Q2" s="3"/>
     </row>
